--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipeacevedo/Documents/Programing/controller_calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA119F99-A848-E54F-8816-A9F2C80B07A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1A3E08-7187-1E4B-99D6-323BA4AC611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{EFFC40F8-AC5B-7848-A1D0-CF7F8B5C29BB}"/>
+    <workbookView xWindow="4420" yWindow="740" windowWidth="25820" windowHeight="18900" xr2:uid="{EFFC40F8-AC5B-7848-A1D0-CF7F8B5C29BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +107,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,16 +132,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,7 +480,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +497,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>986.56</v>
       </c>
     </row>
@@ -495,7 +508,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>451.13</v>
       </c>
     </row>
@@ -506,7 +519,7 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1153.0899999999999</v>
       </c>
     </row>
@@ -517,7 +530,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>749.72</v>
       </c>
     </row>
@@ -528,7 +541,7 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>299.74</v>
       </c>
     </row>
@@ -539,7 +552,7 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>299.74</v>
       </c>
     </row>
@@ -550,7 +563,7 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>198.31</v>
       </c>
     </row>
